--- a/data/MergeLead.xlsx
+++ b/data/MergeLead.xlsx
@@ -22,10 +22,10 @@
     <t>Destination Id</t>
   </si>
   <si>
-    <t>10025</t>
+    <t>10005</t>
   </si>
   <si>
-    <t>10027</t>
+    <t>10009</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
